--- a/data-raw/polifenoli/2020/polifenoli_HPLC_drupe.xlsx
+++ b/data-raw/polifenoli/2020/polifenoli_HPLC_drupe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\file progetto\polifenoli veri\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\file progetto\polifenoli veri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B08F80-6A8B-4065-AC5D-4A4E2F72CE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BD8C27-21FF-46AD-98D6-7190D735621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D42F1501-9FEC-4851-B7BD-B10C81F9B577}"/>
+    <workbookView xWindow="345" yWindow="1800" windowWidth="25275" windowHeight="13755" xr2:uid="{D42F1501-9FEC-4851-B7BD-B10C81F9B577}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="45">
   <si>
     <t>Idrossitirosolo</t>
   </si>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515717C1-F799-4246-BFAC-63AB3ABCF04F}">
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221:N283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7451,6 +7451,5550 @@
         <v>9.358986156865452</v>
       </c>
     </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>2021</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>16.73</v>
+      </c>
+      <c r="G158">
+        <v>10.52</v>
+      </c>
+      <c r="H158">
+        <v>1845.7429999999999</v>
+      </c>
+      <c r="I158">
+        <v>2393.0949999999998</v>
+      </c>
+      <c r="J158">
+        <v>41.841999999999999</v>
+      </c>
+      <c r="K158">
+        <v>38.39</v>
+      </c>
+      <c r="L158">
+        <v>18.029</v>
+      </c>
+      <c r="M158">
+        <v>1857.971</v>
+      </c>
+      <c r="N158">
+        <v>2.7090000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <v>2021</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>16.73</v>
+      </c>
+      <c r="G159">
+        <v>10.52</v>
+      </c>
+      <c r="H159">
+        <v>1846.8219999999999</v>
+      </c>
+      <c r="I159">
+        <v>2401.011</v>
+      </c>
+      <c r="J159">
+        <v>38.674999999999997</v>
+      </c>
+      <c r="K159">
+        <v>34.121000000000002</v>
+      </c>
+      <c r="L159">
+        <v>16.024999999999999</v>
+      </c>
+      <c r="M159">
+        <v>1924.21</v>
+      </c>
+      <c r="N159">
+        <v>1.2569999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>2021</v>
+      </c>
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>16.73</v>
+      </c>
+      <c r="G160">
+        <v>10.52</v>
+      </c>
+      <c r="H160">
+        <v>1842.221</v>
+      </c>
+      <c r="I160">
+        <v>2388.5639999999999</v>
+      </c>
+      <c r="J160">
+        <v>40.597999999999999</v>
+      </c>
+      <c r="K160">
+        <v>39.156999999999996</v>
+      </c>
+      <c r="L160">
+        <v>21.001999999999999</v>
+      </c>
+      <c r="M160">
+        <v>1872.2539999999999</v>
+      </c>
+      <c r="N160">
+        <v>3.5779999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161">
+        <v>2021</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>14.92</v>
+      </c>
+      <c r="G161">
+        <v>10.48</v>
+      </c>
+      <c r="H161">
+        <v>1902.4459999999999</v>
+      </c>
+      <c r="I161">
+        <v>2750.951</v>
+      </c>
+      <c r="J161">
+        <v>6.5149999999999997</v>
+      </c>
+      <c r="K161">
+        <v>53.554000000000002</v>
+      </c>
+      <c r="L161">
+        <v>46.249000000000002</v>
+      </c>
+      <c r="M161">
+        <v>1183.9639999999999</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>2021</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>14.92</v>
+      </c>
+      <c r="G162">
+        <v>10.48</v>
+      </c>
+      <c r="H162">
+        <v>1889.248</v>
+      </c>
+      <c r="I162">
+        <v>2795.2469999999998</v>
+      </c>
+      <c r="J162">
+        <v>5.2359999999999998</v>
+      </c>
+      <c r="K162">
+        <v>49.578000000000003</v>
+      </c>
+      <c r="L162">
+        <v>42.369</v>
+      </c>
+      <c r="M162">
+        <v>1203.8969999999999</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163">
+        <v>2021</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>14.92</v>
+      </c>
+      <c r="G163">
+        <v>10.48</v>
+      </c>
+      <c r="H163">
+        <v>1915.059</v>
+      </c>
+      <c r="I163">
+        <v>2763.1570000000002</v>
+      </c>
+      <c r="J163">
+        <v>4.1280000000000001</v>
+      </c>
+      <c r="K163">
+        <v>50.296999999999997</v>
+      </c>
+      <c r="L163">
+        <v>48.579000000000001</v>
+      </c>
+      <c r="M163">
+        <v>1197.789</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164">
+        <v>2021</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>16.18</v>
+      </c>
+      <c r="G164">
+        <v>10.47</v>
+      </c>
+      <c r="H164">
+        <v>2069.1950000000002</v>
+      </c>
+      <c r="I164">
+        <v>2214.8780000000002</v>
+      </c>
+      <c r="J164">
+        <v>64.433999999999997</v>
+      </c>
+      <c r="K164">
+        <v>41.603999999999999</v>
+      </c>
+      <c r="L164">
+        <v>52.386000000000003</v>
+      </c>
+      <c r="M164">
+        <v>2198.4740000000002</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165">
+        <v>2021</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>16.18</v>
+      </c>
+      <c r="G165">
+        <v>10.47</v>
+      </c>
+      <c r="H165">
+        <v>2152.2469999999998</v>
+      </c>
+      <c r="I165">
+        <v>2247.587</v>
+      </c>
+      <c r="J165">
+        <v>58.472000000000001</v>
+      </c>
+      <c r="K165">
+        <v>38.570999999999998</v>
+      </c>
+      <c r="L165">
+        <v>57.298000000000002</v>
+      </c>
+      <c r="M165">
+        <v>1999.2570000000001</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166">
+        <v>2021</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>16.18</v>
+      </c>
+      <c r="G166">
+        <v>10.47</v>
+      </c>
+      <c r="H166">
+        <v>2097.5549999999998</v>
+      </c>
+      <c r="I166">
+        <v>2067.9870000000001</v>
+      </c>
+      <c r="J166">
+        <v>62.598999999999997</v>
+      </c>
+      <c r="K166">
+        <v>40.887999999999998</v>
+      </c>
+      <c r="L166">
+        <v>55.238</v>
+      </c>
+      <c r="M166">
+        <v>2097.2869999999998</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>2021</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>17.05</v>
+      </c>
+      <c r="G167">
+        <v>77.08</v>
+      </c>
+      <c r="H167">
+        <v>2051.3980000000001</v>
+      </c>
+      <c r="I167">
+        <v>2182.81</v>
+      </c>
+      <c r="J167">
+        <v>8.7349999999999994</v>
+      </c>
+      <c r="K167">
+        <v>60.512999999999998</v>
+      </c>
+      <c r="L167">
+        <v>45.676000000000002</v>
+      </c>
+      <c r="M167">
+        <v>1685.42</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>2021</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>17.05</v>
+      </c>
+      <c r="G168">
+        <v>77.08</v>
+      </c>
+      <c r="H168">
+        <v>2003.1569999999999</v>
+      </c>
+      <c r="I168">
+        <v>2115.8789999999999</v>
+      </c>
+      <c r="J168">
+        <v>5.149</v>
+      </c>
+      <c r="K168">
+        <v>60.027999999999999</v>
+      </c>
+      <c r="L168">
+        <v>44.122999999999998</v>
+      </c>
+      <c r="M168">
+        <v>1759.2449999999999</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169">
+        <v>2021</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>17.05</v>
+      </c>
+      <c r="G169">
+        <v>77.08</v>
+      </c>
+      <c r="H169">
+        <v>2019.789</v>
+      </c>
+      <c r="I169">
+        <v>1987.962</v>
+      </c>
+      <c r="J169">
+        <v>9.2449999999999992</v>
+      </c>
+      <c r="K169">
+        <v>58.472000000000001</v>
+      </c>
+      <c r="L169">
+        <v>46.878999999999998</v>
+      </c>
+      <c r="M169">
+        <v>1697.8209999999999</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>2021</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>17.55</v>
+      </c>
+      <c r="G170">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H170">
+        <v>2171.6689999999999</v>
+      </c>
+      <c r="I170">
+        <v>2177.6410000000001</v>
+      </c>
+      <c r="J170">
+        <v>3.7930000000000001</v>
+      </c>
+      <c r="K170">
+        <v>30.925000000000001</v>
+      </c>
+      <c r="L170">
+        <v>50.887999999999998</v>
+      </c>
+      <c r="M170">
+        <v>2079.0030000000002</v>
+      </c>
+      <c r="N170">
+        <v>2.863</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171">
+        <v>2021</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>17.55</v>
+      </c>
+      <c r="G171">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H171">
+        <v>2159.268</v>
+      </c>
+      <c r="I171">
+        <v>1987.973</v>
+      </c>
+      <c r="J171">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="K171">
+        <v>28.972000000000001</v>
+      </c>
+      <c r="L171">
+        <v>48.256999999999998</v>
+      </c>
+      <c r="M171">
+        <v>1997.6279999999999</v>
+      </c>
+      <c r="N171">
+        <v>2.9870000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172">
+        <v>2021</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>17.55</v>
+      </c>
+      <c r="G172">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H172">
+        <v>2198.357</v>
+      </c>
+      <c r="I172">
+        <v>2115.2570000000001</v>
+      </c>
+      <c r="J172">
+        <v>4.5869999999999997</v>
+      </c>
+      <c r="K172">
+        <v>31.687000000000001</v>
+      </c>
+      <c r="L172">
+        <v>46.686999999999998</v>
+      </c>
+      <c r="M172">
+        <v>2094.2280000000001</v>
+      </c>
+      <c r="N172">
+        <v>2.5489999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173">
+        <v>2021</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>17.02</v>
+      </c>
+      <c r="G173">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="H173">
+        <v>2026.972</v>
+      </c>
+      <c r="I173">
+        <v>4169.7790000000005</v>
+      </c>
+      <c r="J173">
+        <v>114.181</v>
+      </c>
+      <c r="K173">
+        <v>71.430999999999997</v>
+      </c>
+      <c r="L173">
+        <v>79.421999999999997</v>
+      </c>
+      <c r="M173">
+        <v>2308.5129999999999</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <v>2021</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>17.02</v>
+      </c>
+      <c r="G174">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="H174">
+        <v>2005.356</v>
+      </c>
+      <c r="I174">
+        <v>3526.8719999999998</v>
+      </c>
+      <c r="J174">
+        <v>110.267</v>
+      </c>
+      <c r="K174">
+        <v>68.566999999999993</v>
+      </c>
+      <c r="L174">
+        <v>78.367999999999995</v>
+      </c>
+      <c r="M174">
+        <v>2189.125</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>2021</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>17.02</v>
+      </c>
+      <c r="G175">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="H175">
+        <v>2079.2489999999998</v>
+      </c>
+      <c r="I175">
+        <v>3359.2779999999998</v>
+      </c>
+      <c r="J175">
+        <v>109.87</v>
+      </c>
+      <c r="K175">
+        <v>70.268000000000001</v>
+      </c>
+      <c r="L175">
+        <v>81.259</v>
+      </c>
+      <c r="M175">
+        <v>2287.6790000000001</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176">
+        <v>2021</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>16.62</v>
+      </c>
+      <c r="G176">
+        <v>10.75</v>
+      </c>
+      <c r="H176">
+        <v>1934.4839999999999</v>
+      </c>
+      <c r="I176">
+        <v>2121.732</v>
+      </c>
+      <c r="J176">
+        <v>3.609</v>
+      </c>
+      <c r="K176">
+        <v>12.845000000000001</v>
+      </c>
+      <c r="L176">
+        <v>37.414000000000001</v>
+      </c>
+      <c r="M176">
+        <v>200.928</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177">
+        <v>2021</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>16.62</v>
+      </c>
+      <c r="G177">
+        <v>10.75</v>
+      </c>
+      <c r="H177">
+        <v>1886.2570000000001</v>
+      </c>
+      <c r="I177">
+        <v>2096.4949999999999</v>
+      </c>
+      <c r="J177">
+        <v>2.15</v>
+      </c>
+      <c r="K177">
+        <v>11.068</v>
+      </c>
+      <c r="L177">
+        <v>36.258000000000003</v>
+      </c>
+      <c r="M177">
+        <v>197.268</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178">
+        <v>2021</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>16.62</v>
+      </c>
+      <c r="G178">
+        <v>10.75</v>
+      </c>
+      <c r="H178">
+        <v>1999.6569999999999</v>
+      </c>
+      <c r="I178">
+        <v>2106.2869999999998</v>
+      </c>
+      <c r="J178">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="K178">
+        <v>10.87</v>
+      </c>
+      <c r="L178">
+        <v>35.686999999999998</v>
+      </c>
+      <c r="M178">
+        <v>199.82300000000001</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179">
+        <v>2021</v>
+      </c>
+      <c r="D179" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>15.32</v>
+      </c>
+      <c r="G179">
+        <v>10.32</v>
+      </c>
+      <c r="H179">
+        <v>2050.672</v>
+      </c>
+      <c r="I179">
+        <v>2210.509</v>
+      </c>
+      <c r="J179">
+        <v>12.087</v>
+      </c>
+      <c r="K179">
+        <v>65.864999999999995</v>
+      </c>
+      <c r="L179">
+        <v>43.212000000000003</v>
+      </c>
+      <c r="M179">
+        <v>2134.7109999999998</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180">
+        <v>2021</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>15.32</v>
+      </c>
+      <c r="G180">
+        <v>10.32</v>
+      </c>
+      <c r="H180">
+        <v>2000.28</v>
+      </c>
+      <c r="I180">
+        <v>2198.2460000000001</v>
+      </c>
+      <c r="J180">
+        <v>9.6620000000000008</v>
+      </c>
+      <c r="K180">
+        <v>55.253999999999998</v>
+      </c>
+      <c r="L180">
+        <v>41.597999999999999</v>
+      </c>
+      <c r="M180">
+        <v>2166.5700000000002</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181">
+        <v>2021</v>
+      </c>
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>15.32</v>
+      </c>
+      <c r="G181">
+        <v>10.32</v>
+      </c>
+      <c r="H181">
+        <v>2024.68</v>
+      </c>
+      <c r="I181">
+        <v>2206.5700000000002</v>
+      </c>
+      <c r="J181">
+        <v>10.268000000000001</v>
+      </c>
+      <c r="K181">
+        <v>92.677999999999997</v>
+      </c>
+      <c r="L181">
+        <v>42.265000000000001</v>
+      </c>
+      <c r="M181">
+        <v>2222.2979999999998</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>24</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182">
+        <v>2021</v>
+      </c>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>17.47</v>
+      </c>
+      <c r="G182">
+        <v>10.23</v>
+      </c>
+      <c r="H182">
+        <v>2030.6859999999999</v>
+      </c>
+      <c r="I182">
+        <v>2194.0039999999999</v>
+      </c>
+      <c r="J182">
+        <v>16.387</v>
+      </c>
+      <c r="K182">
+        <v>59.606999999999999</v>
+      </c>
+      <c r="L182">
+        <v>66.126000000000005</v>
+      </c>
+      <c r="M182">
+        <v>2121.2170000000001</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183">
+        <v>2021</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>17.47</v>
+      </c>
+      <c r="G183">
+        <v>10.23</v>
+      </c>
+      <c r="H183">
+        <v>2152.357</v>
+      </c>
+      <c r="I183">
+        <v>2068.9540000000002</v>
+      </c>
+      <c r="J183">
+        <v>15.234999999999999</v>
+      </c>
+      <c r="K183">
+        <v>60.231000000000002</v>
+      </c>
+      <c r="L183">
+        <v>65.239999999999995</v>
+      </c>
+      <c r="M183">
+        <v>2019.9870000000001</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184">
+        <v>2021</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>17.47</v>
+      </c>
+      <c r="G184">
+        <v>10.23</v>
+      </c>
+      <c r="H184">
+        <v>2008.568</v>
+      </c>
+      <c r="I184">
+        <v>2134.8620000000001</v>
+      </c>
+      <c r="J184">
+        <v>15.997</v>
+      </c>
+      <c r="K184">
+        <v>58.156999999999996</v>
+      </c>
+      <c r="L184">
+        <v>62.356999999999999</v>
+      </c>
+      <c r="M184">
+        <v>2113.29</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>25</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185">
+        <v>2021</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G185">
+        <v>10.3</v>
+      </c>
+      <c r="H185">
+        <v>2167.7950000000001</v>
+      </c>
+      <c r="I185">
+        <v>2216.5880000000002</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>11.196999999999999</v>
+      </c>
+      <c r="L185">
+        <v>47.886000000000003</v>
+      </c>
+      <c r="M185">
+        <v>2220.5749999999998</v>
+      </c>
+      <c r="N185">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>25</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186">
+        <v>2021</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G186">
+        <v>10.3</v>
+      </c>
+      <c r="H186">
+        <v>2165.268</v>
+      </c>
+      <c r="I186">
+        <v>2254.2689999999998</v>
+      </c>
+      <c r="J186">
+        <v>0.124</v>
+      </c>
+      <c r="K186">
+        <v>10.257999999999999</v>
+      </c>
+      <c r="L186">
+        <v>44.267000000000003</v>
+      </c>
+      <c r="M186">
+        <v>2216.3589999999999</v>
+      </c>
+      <c r="N186">
+        <v>5.2469999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>25</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <v>2021</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G187">
+        <v>10.3</v>
+      </c>
+      <c r="H187">
+        <v>2115.2640000000001</v>
+      </c>
+      <c r="I187">
+        <v>2247.6210000000001</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>9.5890000000000004</v>
+      </c>
+      <c r="L187">
+        <v>49.582999999999998</v>
+      </c>
+      <c r="M187">
+        <v>2189.9749999999999</v>
+      </c>
+      <c r="N187">
+        <v>3.9870000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188">
+        <v>2021</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G188">
+        <v>10.93</v>
+      </c>
+      <c r="H188">
+        <v>2159.7020000000002</v>
+      </c>
+      <c r="I188">
+        <v>2081.2979999999998</v>
+      </c>
+      <c r="J188">
+        <v>14.569000000000001</v>
+      </c>
+      <c r="K188">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="L188">
+        <v>34.372999999999998</v>
+      </c>
+      <c r="M188">
+        <v>2171.3310000000001</v>
+      </c>
+      <c r="N188">
+        <v>6.6390000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189">
+        <v>2021</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G189">
+        <v>10.93</v>
+      </c>
+      <c r="H189">
+        <v>2116.6869999999999</v>
+      </c>
+      <c r="I189">
+        <v>2036.357</v>
+      </c>
+      <c r="J189">
+        <v>15.236000000000001</v>
+      </c>
+      <c r="K189">
+        <v>2.9870000000000001</v>
+      </c>
+      <c r="L189">
+        <v>29.864000000000001</v>
+      </c>
+      <c r="M189">
+        <v>2186.3870000000002</v>
+      </c>
+      <c r="N189">
+        <v>5.8879999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190">
+        <v>2021</v>
+      </c>
+      <c r="D190" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G190">
+        <v>10.93</v>
+      </c>
+      <c r="H190">
+        <v>2168.6779999999999</v>
+      </c>
+      <c r="I190">
+        <v>1996.758</v>
+      </c>
+      <c r="J190">
+        <v>13.257999999999999</v>
+      </c>
+      <c r="K190">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="L190">
+        <v>33.267000000000003</v>
+      </c>
+      <c r="M190">
+        <v>2115.9850000000001</v>
+      </c>
+      <c r="N190">
+        <v>6.1260000000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>29</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191">
+        <v>2021</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>17.02</v>
+      </c>
+      <c r="G191">
+        <v>10.37</v>
+      </c>
+      <c r="H191">
+        <v>2116.6849999999999</v>
+      </c>
+      <c r="I191">
+        <v>2375.9070000000002</v>
+      </c>
+      <c r="J191">
+        <v>10.858000000000001</v>
+      </c>
+      <c r="K191">
+        <v>13.555</v>
+      </c>
+      <c r="L191">
+        <v>23.728000000000002</v>
+      </c>
+      <c r="M191">
+        <v>1904.4780000000001</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>2021</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>17.02</v>
+      </c>
+      <c r="G192">
+        <v>10.37</v>
+      </c>
+      <c r="H192">
+        <v>2068.6779999999999</v>
+      </c>
+      <c r="I192">
+        <v>2219.9879999999998</v>
+      </c>
+      <c r="J192">
+        <v>12.531000000000001</v>
+      </c>
+      <c r="K192">
+        <v>10.679</v>
+      </c>
+      <c r="L192">
+        <v>21.567</v>
+      </c>
+      <c r="M192">
+        <v>1952.374</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>29</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193">
+        <v>2021</v>
+      </c>
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>17.02</v>
+      </c>
+      <c r="G193">
+        <v>10.37</v>
+      </c>
+      <c r="H193">
+        <v>2103.6869999999999</v>
+      </c>
+      <c r="I193">
+        <v>286.79199999999997</v>
+      </c>
+      <c r="J193">
+        <v>9.8789999999999996</v>
+      </c>
+      <c r="K193">
+        <v>12.387</v>
+      </c>
+      <c r="L193">
+        <v>22.896999999999998</v>
+      </c>
+      <c r="M193">
+        <v>1889.2650000000001</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>30</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194">
+        <v>2021</v>
+      </c>
+      <c r="D194" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>16.13</v>
+      </c>
+      <c r="G194">
+        <v>10.08</v>
+      </c>
+      <c r="H194">
+        <v>2029.0640000000001</v>
+      </c>
+      <c r="I194">
+        <v>2225.136</v>
+      </c>
+      <c r="J194">
+        <v>351.95699999999999</v>
+      </c>
+      <c r="K194">
+        <v>62.23</v>
+      </c>
+      <c r="L194">
+        <v>52.954000000000001</v>
+      </c>
+      <c r="M194">
+        <v>2336.451</v>
+      </c>
+      <c r="N194">
+        <v>165.75200000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>30</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195">
+        <v>2021</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>16.13</v>
+      </c>
+      <c r="G195">
+        <v>10.08</v>
+      </c>
+      <c r="H195">
+        <v>2005.3779999999999</v>
+      </c>
+      <c r="I195">
+        <v>2136.6770000000001</v>
+      </c>
+      <c r="J195">
+        <v>352.26</v>
+      </c>
+      <c r="K195">
+        <v>58.264000000000003</v>
+      </c>
+      <c r="L195">
+        <v>51.878999999999998</v>
+      </c>
+      <c r="M195">
+        <v>2168.9780000000001</v>
+      </c>
+      <c r="N195">
+        <v>172.678</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>30</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196">
+        <v>2021</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>16.13</v>
+      </c>
+      <c r="G196">
+        <v>10.08</v>
+      </c>
+      <c r="H196">
+        <v>2159.2159999999999</v>
+      </c>
+      <c r="I196">
+        <v>2257.1590000000001</v>
+      </c>
+      <c r="J196">
+        <v>338.97399999999999</v>
+      </c>
+      <c r="K196">
+        <v>60.377000000000002</v>
+      </c>
+      <c r="L196">
+        <v>49.667000000000002</v>
+      </c>
+      <c r="M196">
+        <v>2305.6869999999999</v>
+      </c>
+      <c r="N196">
+        <v>160.88200000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>31</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197">
+        <v>2021</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>14.53</v>
+      </c>
+      <c r="G197">
+        <v>10.6</v>
+      </c>
+      <c r="H197">
+        <v>2359.8629999999998</v>
+      </c>
+      <c r="I197">
+        <v>2976.7759999999998</v>
+      </c>
+      <c r="J197">
+        <v>159.251</v>
+      </c>
+      <c r="K197">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="L197">
+        <v>103.08799999999999</v>
+      </c>
+      <c r="M197">
+        <v>3493.78</v>
+      </c>
+      <c r="N197">
+        <v>294.113</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>31</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198">
+        <v>2021</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>14.53</v>
+      </c>
+      <c r="G198">
+        <v>10.6</v>
+      </c>
+      <c r="H198">
+        <v>2387.6979999999999</v>
+      </c>
+      <c r="I198">
+        <v>2872.364</v>
+      </c>
+      <c r="J198">
+        <v>157.245</v>
+      </c>
+      <c r="K198">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="L198">
+        <v>100.697</v>
+      </c>
+      <c r="M198">
+        <v>3325.9870000000001</v>
+      </c>
+      <c r="N198">
+        <v>253.68700000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199">
+        <v>2021</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>14.53</v>
+      </c>
+      <c r="G199">
+        <v>10.6</v>
+      </c>
+      <c r="H199">
+        <v>2348.6210000000001</v>
+      </c>
+      <c r="I199">
+        <v>2897.3539999999998</v>
+      </c>
+      <c r="J199">
+        <v>155.387</v>
+      </c>
+      <c r="K199">
+        <v>3.214</v>
+      </c>
+      <c r="L199">
+        <v>102.678</v>
+      </c>
+      <c r="M199">
+        <v>3401.3240000000001</v>
+      </c>
+      <c r="N199">
+        <v>241.33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>32</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200">
+        <v>2021</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>14.9</v>
+      </c>
+      <c r="G200">
+        <v>10.57</v>
+      </c>
+      <c r="H200">
+        <v>2295.625</v>
+      </c>
+      <c r="I200">
+        <v>2327.6759999999999</v>
+      </c>
+      <c r="J200">
+        <v>104.76</v>
+      </c>
+      <c r="K200">
+        <v>19.512</v>
+      </c>
+      <c r="L200">
+        <v>53.134999999999998</v>
+      </c>
+      <c r="M200">
+        <v>2272.1619999999998</v>
+      </c>
+      <c r="N200">
+        <v>71.465999999999994</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>32</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201">
+        <v>2021</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>14.9</v>
+      </c>
+      <c r="G201">
+        <v>10.57</v>
+      </c>
+      <c r="H201">
+        <v>2256.8829999999998</v>
+      </c>
+      <c r="I201">
+        <v>2221.3870000000002</v>
+      </c>
+      <c r="J201">
+        <v>100.23</v>
+      </c>
+      <c r="K201">
+        <v>15.234999999999999</v>
+      </c>
+      <c r="L201">
+        <v>48.654000000000003</v>
+      </c>
+      <c r="M201">
+        <v>2284.2649999999999</v>
+      </c>
+      <c r="N201">
+        <v>70.364999999999995</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>32</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202">
+        <v>2021</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>14.9</v>
+      </c>
+      <c r="G202">
+        <v>10.57</v>
+      </c>
+      <c r="H202">
+        <v>2298.0250000000001</v>
+      </c>
+      <c r="I202">
+        <v>2318.0680000000002</v>
+      </c>
+      <c r="J202">
+        <v>99.879000000000005</v>
+      </c>
+      <c r="K202">
+        <v>21.257000000000001</v>
+      </c>
+      <c r="L202">
+        <v>51.338000000000001</v>
+      </c>
+      <c r="M202">
+        <v>2198.672</v>
+      </c>
+      <c r="N202">
+        <v>72.332999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>33</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203">
+        <v>2021</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>15.23</v>
+      </c>
+      <c r="G203">
+        <v>10.77</v>
+      </c>
+      <c r="H203">
+        <v>2275.152</v>
+      </c>
+      <c r="I203">
+        <v>2806.41</v>
+      </c>
+      <c r="J203">
+        <v>223.149</v>
+      </c>
+      <c r="K203">
+        <v>4.3109999999999999</v>
+      </c>
+      <c r="L203">
+        <v>84.653000000000006</v>
+      </c>
+      <c r="M203">
+        <v>2888.3870000000002</v>
+      </c>
+      <c r="N203">
+        <v>150.57300000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>33</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204">
+        <v>2021</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>15.23</v>
+      </c>
+      <c r="G204">
+        <v>10.77</v>
+      </c>
+      <c r="H204">
+        <v>2198.25</v>
+      </c>
+      <c r="I204">
+        <v>2785.3539999999998</v>
+      </c>
+      <c r="J204">
+        <v>198.25399999999999</v>
+      </c>
+      <c r="K204">
+        <v>2.9780000000000002</v>
+      </c>
+      <c r="L204">
+        <v>80.578999999999994</v>
+      </c>
+      <c r="M204">
+        <v>2873.12</v>
+      </c>
+      <c r="N204">
+        <v>152.35400000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>33</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205">
+        <v>2021</v>
+      </c>
+      <c r="D205" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>15.23</v>
+      </c>
+      <c r="G205">
+        <v>10.77</v>
+      </c>
+      <c r="H205">
+        <v>2188.6729999999998</v>
+      </c>
+      <c r="I205">
+        <v>2800.67</v>
+      </c>
+      <c r="J205">
+        <v>218.36</v>
+      </c>
+      <c r="K205">
+        <v>3.01</v>
+      </c>
+      <c r="L205">
+        <v>72.677000000000007</v>
+      </c>
+      <c r="M205">
+        <v>2912.2539999999999</v>
+      </c>
+      <c r="N205">
+        <v>148.666</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <v>2021</v>
+      </c>
+      <c r="D206" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>15.78</v>
+      </c>
+      <c r="G206">
+        <v>10.25</v>
+      </c>
+      <c r="H206">
+        <v>2262.1750000000002</v>
+      </c>
+      <c r="I206">
+        <v>2344.0729999999999</v>
+      </c>
+      <c r="J206">
+        <v>115.821</v>
+      </c>
+      <c r="K206">
+        <v>23.638999999999999</v>
+      </c>
+      <c r="L206">
+        <v>65.388999999999996</v>
+      </c>
+      <c r="M206">
+        <v>2312.4349999999999</v>
+      </c>
+      <c r="N206">
+        <v>76.323999999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207">
+        <v>2021</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>15.78</v>
+      </c>
+      <c r="G207">
+        <v>10.25</v>
+      </c>
+      <c r="H207">
+        <v>2228.279</v>
+      </c>
+      <c r="I207">
+        <v>2310.6750000000002</v>
+      </c>
+      <c r="J207">
+        <v>112.22199999999999</v>
+      </c>
+      <c r="K207">
+        <v>19.777000000000001</v>
+      </c>
+      <c r="L207">
+        <v>59.652000000000001</v>
+      </c>
+      <c r="M207">
+        <v>2258.67</v>
+      </c>
+      <c r="N207">
+        <v>77.260000000000005</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208">
+        <v>2021</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>15.78</v>
+      </c>
+      <c r="G208">
+        <v>10.25</v>
+      </c>
+      <c r="H208">
+        <v>2254.35</v>
+      </c>
+      <c r="I208">
+        <v>2297.3249999999998</v>
+      </c>
+      <c r="J208">
+        <v>108.678</v>
+      </c>
+      <c r="K208">
+        <v>25.573</v>
+      </c>
+      <c r="L208">
+        <v>66.546999999999997</v>
+      </c>
+      <c r="M208">
+        <v>2341.2130000000002</v>
+      </c>
+      <c r="N208">
+        <v>69.540999999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>35</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209">
+        <v>2021</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>15.93</v>
+      </c>
+      <c r="G209">
+        <v>10</v>
+      </c>
+      <c r="H209">
+        <v>2236.2449999999999</v>
+      </c>
+      <c r="I209">
+        <v>2732.2730000000001</v>
+      </c>
+      <c r="J209">
+        <v>160.048</v>
+      </c>
+      <c r="K209">
+        <v>8.5969999999999995</v>
+      </c>
+      <c r="L209">
+        <v>60.822000000000003</v>
+      </c>
+      <c r="M209">
+        <v>3058.5320000000002</v>
+      </c>
+      <c r="N209">
+        <v>221.297</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>35</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210">
+        <v>2021</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>15.93</v>
+      </c>
+      <c r="G210">
+        <v>10</v>
+      </c>
+      <c r="H210">
+        <v>2213.0250000000001</v>
+      </c>
+      <c r="I210">
+        <v>2534.5700000000002</v>
+      </c>
+      <c r="J210">
+        <v>157.35</v>
+      </c>
+      <c r="K210">
+        <v>6.2469999999999999</v>
+      </c>
+      <c r="L210">
+        <v>57.862000000000002</v>
+      </c>
+      <c r="M210">
+        <v>2987.2260000000001</v>
+      </c>
+      <c r="N210">
+        <v>198.24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>35</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211">
+        <v>2021</v>
+      </c>
+      <c r="D211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>15.93</v>
+      </c>
+      <c r="G211">
+        <v>10</v>
+      </c>
+      <c r="H211">
+        <v>2211.2570000000001</v>
+      </c>
+      <c r="I211">
+        <v>2667.2979999999998</v>
+      </c>
+      <c r="J211">
+        <v>155.279</v>
+      </c>
+      <c r="K211">
+        <v>7.8819999999999997</v>
+      </c>
+      <c r="L211">
+        <v>63.125</v>
+      </c>
+      <c r="M211">
+        <v>2994.32</v>
+      </c>
+      <c r="N211">
+        <v>193.571</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>36</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212">
+        <v>2021</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>15.37</v>
+      </c>
+      <c r="G212">
+        <v>10.18</v>
+      </c>
+      <c r="H212">
+        <v>2228.21</v>
+      </c>
+      <c r="I212">
+        <v>2325.991</v>
+      </c>
+      <c r="J212">
+        <v>355.04</v>
+      </c>
+      <c r="K212">
+        <v>14.744999999999999</v>
+      </c>
+      <c r="L212">
+        <v>40.183999999999997</v>
+      </c>
+      <c r="M212">
+        <v>2942.0430000000001</v>
+      </c>
+      <c r="N212">
+        <v>191.625</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>36</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213">
+        <v>2021</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>15.37</v>
+      </c>
+      <c r="G213">
+        <v>10.18</v>
+      </c>
+      <c r="H213">
+        <v>2218.6750000000002</v>
+      </c>
+      <c r="I213">
+        <v>2311.498</v>
+      </c>
+      <c r="J213">
+        <v>324.56799999999998</v>
+      </c>
+      <c r="K213">
+        <v>11.265000000000001</v>
+      </c>
+      <c r="L213">
+        <v>35.878999999999998</v>
+      </c>
+      <c r="M213">
+        <v>2897.346</v>
+      </c>
+      <c r="N213">
+        <v>198.02</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>36</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214">
+        <v>2021</v>
+      </c>
+      <c r="D214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>15.37</v>
+      </c>
+      <c r="G214">
+        <v>10.18</v>
+      </c>
+      <c r="H214">
+        <v>2223.2460000000001</v>
+      </c>
+      <c r="I214">
+        <v>2298.654</v>
+      </c>
+      <c r="J214">
+        <v>350.214</v>
+      </c>
+      <c r="K214">
+        <v>15.221</v>
+      </c>
+      <c r="L214">
+        <v>42.112000000000002</v>
+      </c>
+      <c r="M214">
+        <v>2905.4720000000002</v>
+      </c>
+      <c r="N214">
+        <v>179.33600000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>37</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215">
+        <v>2021</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>15.73</v>
+      </c>
+      <c r="G215">
+        <v>10.08</v>
+      </c>
+      <c r="H215">
+        <v>2202.7089999999998</v>
+      </c>
+      <c r="I215">
+        <v>1903.481</v>
+      </c>
+      <c r="J215">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K215">
+        <v>10.964</v>
+      </c>
+      <c r="L215">
+        <v>23.49</v>
+      </c>
+      <c r="M215">
+        <v>173.267</v>
+      </c>
+      <c r="N215">
+        <v>5.2380000000000004</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>37</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216">
+        <v>2021</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>15.73</v>
+      </c>
+      <c r="G216">
+        <v>10.08</v>
+      </c>
+      <c r="H216">
+        <v>2212.8319999999999</v>
+      </c>
+      <c r="I216">
+        <v>1879.2139999999999</v>
+      </c>
+      <c r="J216">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="K216">
+        <v>9.5139999999999993</v>
+      </c>
+      <c r="L216">
+        <v>22.016999999999999</v>
+      </c>
+      <c r="M216">
+        <v>165.23099999999999</v>
+      </c>
+      <c r="N216">
+        <v>4.3209999999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>37</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217">
+        <v>2021</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>15.73</v>
+      </c>
+      <c r="G217">
+        <v>10.08</v>
+      </c>
+      <c r="H217">
+        <v>2211.6320000000001</v>
+      </c>
+      <c r="I217">
+        <v>1913.777</v>
+      </c>
+      <c r="J217">
+        <v>3.01</v>
+      </c>
+      <c r="K217">
+        <v>10.058</v>
+      </c>
+      <c r="L217">
+        <v>17.693999999999999</v>
+      </c>
+      <c r="M217">
+        <v>169.589</v>
+      </c>
+      <c r="N217">
+        <v>3.9870000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>39</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218">
+        <v>2021</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>16.47</v>
+      </c>
+      <c r="G218">
+        <v>10.08</v>
+      </c>
+      <c r="H218">
+        <v>2232.8069999999998</v>
+      </c>
+      <c r="I218">
+        <v>2376.5360000000001</v>
+      </c>
+      <c r="J218">
+        <v>292.64299999999997</v>
+      </c>
+      <c r="K218">
+        <v>11.337999999999999</v>
+      </c>
+      <c r="L218">
+        <v>38.286000000000001</v>
+      </c>
+      <c r="M218">
+        <v>2743.4850000000001</v>
+      </c>
+      <c r="N218">
+        <v>151.52199999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219">
+        <v>2021</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>16.47</v>
+      </c>
+      <c r="G219">
+        <v>10.08</v>
+      </c>
+      <c r="H219">
+        <v>2239.2150000000001</v>
+      </c>
+      <c r="I219">
+        <v>2344.578</v>
+      </c>
+      <c r="J219">
+        <v>273.654</v>
+      </c>
+      <c r="K219">
+        <v>8.6750000000000007</v>
+      </c>
+      <c r="L219">
+        <v>35.350999999999999</v>
+      </c>
+      <c r="M219">
+        <v>2798.3249999999998</v>
+      </c>
+      <c r="N219">
+        <v>175.21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>39</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220">
+        <v>2021</v>
+      </c>
+      <c r="D220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>16.47</v>
+      </c>
+      <c r="G220">
+        <v>10.08</v>
+      </c>
+      <c r="H220">
+        <v>2217.3359999999998</v>
+      </c>
+      <c r="I220">
+        <v>2416.25</v>
+      </c>
+      <c r="J220">
+        <v>281.09699999999998</v>
+      </c>
+      <c r="K220">
+        <v>9.3460000000000001</v>
+      </c>
+      <c r="L220">
+        <v>37.264000000000003</v>
+      </c>
+      <c r="M220">
+        <v>2656.547</v>
+      </c>
+      <c r="N220">
+        <v>162.22399999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221">
+        <v>2021</v>
+      </c>
+      <c r="D221" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>15.3</v>
+      </c>
+      <c r="G221">
+        <v>10.32</v>
+      </c>
+      <c r="H221">
+        <v>1949.3340000000001</v>
+      </c>
+      <c r="I221">
+        <v>1885.1780000000001</v>
+      </c>
+      <c r="J221">
+        <v>109.926</v>
+      </c>
+      <c r="K221">
+        <v>11.358000000000001</v>
+      </c>
+      <c r="L221">
+        <v>89.382000000000005</v>
+      </c>
+      <c r="M221">
+        <v>2803.752</v>
+      </c>
+      <c r="N221">
+        <v>8.7970000000000006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222">
+        <v>2021</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>15.3</v>
+      </c>
+      <c r="G222">
+        <v>10.32</v>
+      </c>
+      <c r="H222">
+        <v>1953.645</v>
+      </c>
+      <c r="I222">
+        <v>1870.3510000000001</v>
+      </c>
+      <c r="J222">
+        <v>88.625</v>
+      </c>
+      <c r="K222">
+        <v>8.6750000000000007</v>
+      </c>
+      <c r="L222">
+        <v>79.679000000000002</v>
+      </c>
+      <c r="M222">
+        <v>2732.1570000000002</v>
+      </c>
+      <c r="N222">
+        <v>6.2539999999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223">
+        <v>2021</v>
+      </c>
+      <c r="D223" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>15.3</v>
+      </c>
+      <c r="G223">
+        <v>10.32</v>
+      </c>
+      <c r="H223">
+        <v>1923.33</v>
+      </c>
+      <c r="I223">
+        <v>1798.3409999999999</v>
+      </c>
+      <c r="J223">
+        <v>99.245000000000005</v>
+      </c>
+      <c r="K223">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="L223">
+        <v>81.233999999999995</v>
+      </c>
+      <c r="M223">
+        <v>2793.5430000000001</v>
+      </c>
+      <c r="N223">
+        <v>7.3440000000000003</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224">
+        <v>2021</v>
+      </c>
+      <c r="D224" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>15.5</v>
+      </c>
+      <c r="G224">
+        <v>10.4</v>
+      </c>
+      <c r="H224">
+        <v>1945.15</v>
+      </c>
+      <c r="I224">
+        <v>1842.4839999999999</v>
+      </c>
+      <c r="J224">
+        <v>159.66999999999999</v>
+      </c>
+      <c r="K224">
+        <v>18.687999999999999</v>
+      </c>
+      <c r="L224">
+        <v>93.498000000000005</v>
+      </c>
+      <c r="M224">
+        <v>2989.2249999999999</v>
+      </c>
+      <c r="N224">
+        <v>2.9849999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225">
+        <v>2021</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>15.5</v>
+      </c>
+      <c r="G225">
+        <v>10.4</v>
+      </c>
+      <c r="H225">
+        <v>1993.2449999999999</v>
+      </c>
+      <c r="I225">
+        <v>1855.3789999999999</v>
+      </c>
+      <c r="J225">
+        <v>125.678</v>
+      </c>
+      <c r="K225">
+        <v>16.984000000000002</v>
+      </c>
+      <c r="L225">
+        <v>88.24</v>
+      </c>
+      <c r="M225">
+        <v>2779.3490000000002</v>
+      </c>
+      <c r="N225">
+        <v>3.157</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226">
+        <v>2021</v>
+      </c>
+      <c r="D226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>15.5</v>
+      </c>
+      <c r="G226">
+        <v>10.4</v>
+      </c>
+      <c r="H226">
+        <v>1922.0889999999999</v>
+      </c>
+      <c r="I226">
+        <v>1916.14</v>
+      </c>
+      <c r="J226">
+        <v>145.995</v>
+      </c>
+      <c r="K226">
+        <v>15.47</v>
+      </c>
+      <c r="L226">
+        <v>79.266999999999996</v>
+      </c>
+      <c r="M226">
+        <v>2846.6779999999999</v>
+      </c>
+      <c r="N226">
+        <v>2.5369999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>16</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227">
+        <v>2021</v>
+      </c>
+      <c r="D227" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="G227">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H227">
+        <v>2223.002</v>
+      </c>
+      <c r="I227">
+        <v>2381.183</v>
+      </c>
+      <c r="J227">
+        <v>385.63400000000001</v>
+      </c>
+      <c r="K227">
+        <v>7.56</v>
+      </c>
+      <c r="L227">
+        <v>47.317</v>
+      </c>
+      <c r="M227">
+        <v>2196.5639999999999</v>
+      </c>
+      <c r="N227">
+        <v>9.0180000000000007</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228">
+        <v>2021</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="G228">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H228">
+        <v>2103.5790000000002</v>
+      </c>
+      <c r="I228">
+        <v>2453.0210000000002</v>
+      </c>
+      <c r="J228">
+        <v>332.85199999999998</v>
+      </c>
+      <c r="K228">
+        <v>5.23</v>
+      </c>
+      <c r="L228">
+        <v>44.853999999999999</v>
+      </c>
+      <c r="M228">
+        <v>2203.2759999999998</v>
+      </c>
+      <c r="N228">
+        <v>5.3419999999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229">
+        <v>2021</v>
+      </c>
+      <c r="D229" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="G229">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H229">
+        <v>1999.9870000000001</v>
+      </c>
+      <c r="I229">
+        <v>2337.924</v>
+      </c>
+      <c r="J229">
+        <v>359.07799999999997</v>
+      </c>
+      <c r="K229">
+        <v>8.6419999999999995</v>
+      </c>
+      <c r="L229">
+        <v>31.094999999999999</v>
+      </c>
+      <c r="M229">
+        <v>2118.67</v>
+      </c>
+      <c r="N229">
+        <v>4.2220000000000004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>17</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230">
+        <v>2021</v>
+      </c>
+      <c r="D230" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>18.52</v>
+      </c>
+      <c r="G230">
+        <v>9.92</v>
+      </c>
+      <c r="H230">
+        <v>1915.0530000000001</v>
+      </c>
+      <c r="I230">
+        <v>1697.61</v>
+      </c>
+      <c r="J230">
+        <v>25.451000000000001</v>
+      </c>
+      <c r="K230">
+        <v>8.94</v>
+      </c>
+      <c r="L230">
+        <v>42.738</v>
+      </c>
+      <c r="M230">
+        <v>2544.7159999999999</v>
+      </c>
+      <c r="N230">
+        <v>12.065</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>17</v>
+      </c>
+      <c r="B231" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231">
+        <v>2021</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>18.52</v>
+      </c>
+      <c r="G231">
+        <v>9.92</v>
+      </c>
+      <c r="H231">
+        <v>1926.5350000000001</v>
+      </c>
+      <c r="I231">
+        <v>1567.0350000000001</v>
+      </c>
+      <c r="J231">
+        <v>20.347000000000001</v>
+      </c>
+      <c r="K231">
+        <v>5.2789999999999999</v>
+      </c>
+      <c r="L231">
+        <v>38.953000000000003</v>
+      </c>
+      <c r="M231">
+        <v>2267.165</v>
+      </c>
+      <c r="N231">
+        <v>8.2669999999999995</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232">
+        <v>2021</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>18.52</v>
+      </c>
+      <c r="G232">
+        <v>9.92</v>
+      </c>
+      <c r="H232">
+        <v>1988.3789999999999</v>
+      </c>
+      <c r="I232">
+        <v>1725.6659999999999</v>
+      </c>
+      <c r="J232">
+        <v>26.332999999999998</v>
+      </c>
+      <c r="K232">
+        <v>6.0970000000000004</v>
+      </c>
+      <c r="L232">
+        <v>41.35</v>
+      </c>
+      <c r="M232">
+        <v>2311.9699999999998</v>
+      </c>
+      <c r="N232">
+        <v>9.6639999999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233">
+        <v>2021</v>
+      </c>
+      <c r="D233" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>18.63</v>
+      </c>
+      <c r="G233">
+        <v>10</v>
+      </c>
+      <c r="H233">
+        <v>1934.45</v>
+      </c>
+      <c r="I233">
+        <v>1725.78</v>
+      </c>
+      <c r="J233">
+        <v>36.987000000000002</v>
+      </c>
+      <c r="K233">
+        <v>9.3650000000000002</v>
+      </c>
+      <c r="L233">
+        <v>62.478999999999999</v>
+      </c>
+      <c r="M233">
+        <v>2859.8449999999998</v>
+      </c>
+      <c r="N233">
+        <v>11.808</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234">
+        <v>2021</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>18.63</v>
+      </c>
+      <c r="G234">
+        <v>10</v>
+      </c>
+      <c r="H234">
+        <v>1999.21</v>
+      </c>
+      <c r="I234">
+        <v>1698.347</v>
+      </c>
+      <c r="J234">
+        <v>44.697000000000003</v>
+      </c>
+      <c r="K234">
+        <v>12.345000000000001</v>
+      </c>
+      <c r="L234">
+        <v>56.957000000000001</v>
+      </c>
+      <c r="M234">
+        <v>2912.2339999999999</v>
+      </c>
+      <c r="N234">
+        <v>9.157</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235">
+        <v>2021</v>
+      </c>
+      <c r="D235" t="s">
+        <v>11</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>18.63</v>
+      </c>
+      <c r="G235">
+        <v>10</v>
+      </c>
+      <c r="H235">
+        <v>1922.367</v>
+      </c>
+      <c r="I235">
+        <v>1712.357</v>
+      </c>
+      <c r="J235">
+        <v>33.255000000000003</v>
+      </c>
+      <c r="K235">
+        <v>8.9930000000000003</v>
+      </c>
+      <c r="L235">
+        <v>66.263999999999996</v>
+      </c>
+      <c r="M235">
+        <v>2559.6869999999999</v>
+      </c>
+      <c r="N235">
+        <v>8.9930000000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236">
+        <v>2021</v>
+      </c>
+      <c r="D236" t="s">
+        <v>9</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>16.23</v>
+      </c>
+      <c r="G236">
+        <v>10.07</v>
+      </c>
+      <c r="H236">
+        <v>2087.1680000000001</v>
+      </c>
+      <c r="I236">
+        <v>1904.155</v>
+      </c>
+      <c r="J236">
+        <v>7.8090000000000002</v>
+      </c>
+      <c r="K236">
+        <v>8.4350000000000005</v>
+      </c>
+      <c r="L236">
+        <v>72.685000000000002</v>
+      </c>
+      <c r="M236">
+        <v>2786.2779999999998</v>
+      </c>
+      <c r="N236">
+        <v>16.582999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237">
+        <v>2021</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>16.23</v>
+      </c>
+      <c r="G237">
+        <v>10.07</v>
+      </c>
+      <c r="H237">
+        <v>2153.2539999999999</v>
+      </c>
+      <c r="I237">
+        <v>1882.991</v>
+      </c>
+      <c r="J237">
+        <v>5.2370000000000001</v>
+      </c>
+      <c r="K237">
+        <v>9.1240000000000006</v>
+      </c>
+      <c r="L237">
+        <v>65.986999999999995</v>
+      </c>
+      <c r="M237">
+        <v>2687.2249999999999</v>
+      </c>
+      <c r="N237">
+        <v>14.683</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238">
+        <v>2021</v>
+      </c>
+      <c r="D238" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>16.23</v>
+      </c>
+      <c r="G238">
+        <v>10.07</v>
+      </c>
+      <c r="H238">
+        <v>1992.3779999999999</v>
+      </c>
+      <c r="I238">
+        <v>1942.3340000000001</v>
+      </c>
+      <c r="J238">
+        <v>8.3539999999999992</v>
+      </c>
+      <c r="K238">
+        <v>7.6849999999999996</v>
+      </c>
+      <c r="L238">
+        <v>75.364999999999995</v>
+      </c>
+      <c r="M238">
+        <v>2719.319</v>
+      </c>
+      <c r="N238">
+        <v>15.991</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>21</v>
+      </c>
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239">
+        <v>2021</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G239">
+        <v>10.23</v>
+      </c>
+      <c r="H239">
+        <v>1984.308</v>
+      </c>
+      <c r="I239">
+        <v>1963.5719999999999</v>
+      </c>
+      <c r="J239">
+        <v>358.25900000000001</v>
+      </c>
+      <c r="K239">
+        <v>3.883</v>
+      </c>
+      <c r="L239">
+        <v>9.8640000000000008</v>
+      </c>
+      <c r="M239">
+        <v>417.173</v>
+      </c>
+      <c r="N239">
+        <v>3.7709999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>21</v>
+      </c>
+      <c r="B240" t="s">
+        <v>15</v>
+      </c>
+      <c r="C240">
+        <v>2021</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G240">
+        <v>10.23</v>
+      </c>
+      <c r="H240">
+        <v>1888.567</v>
+      </c>
+      <c r="I240">
+        <v>2013.654</v>
+      </c>
+      <c r="J240">
+        <v>298.64699999999999</v>
+      </c>
+      <c r="K240">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="L240">
+        <v>8.8930000000000007</v>
+      </c>
+      <c r="M240">
+        <v>426.97800000000001</v>
+      </c>
+      <c r="N240">
+        <v>1.998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>21</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241">
+        <v>2021</v>
+      </c>
+      <c r="D241" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G241">
+        <v>10.23</v>
+      </c>
+      <c r="H241">
+        <v>1953.2639999999999</v>
+      </c>
+      <c r="I241">
+        <v>1972.3240000000001</v>
+      </c>
+      <c r="J241">
+        <v>361.22199999999998</v>
+      </c>
+      <c r="K241">
+        <v>3.956</v>
+      </c>
+      <c r="L241">
+        <v>10.225</v>
+      </c>
+      <c r="M241">
+        <v>398.33199999999999</v>
+      </c>
+      <c r="N241">
+        <v>3.524</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242">
+        <v>2021</v>
+      </c>
+      <c r="D242" t="s">
+        <v>9</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>16.32</v>
+      </c>
+      <c r="G242">
+        <v>10.07</v>
+      </c>
+      <c r="H242">
+        <v>2064.39</v>
+      </c>
+      <c r="I242">
+        <v>1841.461</v>
+      </c>
+      <c r="J242">
+        <v>48.758000000000003</v>
+      </c>
+      <c r="K242">
+        <v>14.597</v>
+      </c>
+      <c r="L242">
+        <v>54.597000000000001</v>
+      </c>
+      <c r="M242">
+        <v>1834.8610000000001</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243">
+        <v>2021</v>
+      </c>
+      <c r="D243" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>16.32</v>
+      </c>
+      <c r="G243">
+        <v>10.07</v>
+      </c>
+      <c r="H243">
+        <v>2123.3200000000002</v>
+      </c>
+      <c r="I243">
+        <v>1798.2650000000001</v>
+      </c>
+      <c r="J243">
+        <v>53.264000000000003</v>
+      </c>
+      <c r="K243">
+        <v>12.993</v>
+      </c>
+      <c r="L243">
+        <v>61.234999999999999</v>
+      </c>
+      <c r="M243">
+        <v>1888.3789999999999</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" t="s">
+        <v>15</v>
+      </c>
+      <c r="C244">
+        <v>2021</v>
+      </c>
+      <c r="D244" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>16.32</v>
+      </c>
+      <c r="G244">
+        <v>10.07</v>
+      </c>
+      <c r="H244">
+        <v>2055.8760000000002</v>
+      </c>
+      <c r="I244">
+        <v>1953.278</v>
+      </c>
+      <c r="J244">
+        <v>51.237000000000002</v>
+      </c>
+      <c r="K244">
+        <v>15.241</v>
+      </c>
+      <c r="L244">
+        <v>50.337000000000003</v>
+      </c>
+      <c r="M244">
+        <v>1824.328</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>24</v>
+      </c>
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245">
+        <v>2021</v>
+      </c>
+      <c r="D245" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>16.03</v>
+      </c>
+      <c r="G245">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H245">
+        <v>1994.2280000000001</v>
+      </c>
+      <c r="I245">
+        <v>1692.7760000000001</v>
+      </c>
+      <c r="J245">
+        <v>78.528000000000006</v>
+      </c>
+      <c r="K245">
+        <v>6.2859999999999996</v>
+      </c>
+      <c r="L245">
+        <v>50.292000000000002</v>
+      </c>
+      <c r="M245">
+        <v>2371.1030000000001</v>
+      </c>
+      <c r="N245">
+        <v>10.157999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>24</v>
+      </c>
+      <c r="B246" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246">
+        <v>2021</v>
+      </c>
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>16.03</v>
+      </c>
+      <c r="G246">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H246">
+        <v>1983.1590000000001</v>
+      </c>
+      <c r="I246">
+        <v>1702.598</v>
+      </c>
+      <c r="J246">
+        <v>65.662999999999997</v>
+      </c>
+      <c r="K246">
+        <v>5.8339999999999996</v>
+      </c>
+      <c r="L246">
+        <v>48.637</v>
+      </c>
+      <c r="M246">
+        <v>2460.0540000000001</v>
+      </c>
+      <c r="N246">
+        <v>9.6639999999999997</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>24</v>
+      </c>
+      <c r="B247" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247">
+        <v>2021</v>
+      </c>
+      <c r="D247" t="s">
+        <v>11</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>16.03</v>
+      </c>
+      <c r="G247">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H247">
+        <v>1867.9949999999999</v>
+      </c>
+      <c r="I247">
+        <v>1731.296</v>
+      </c>
+      <c r="J247">
+        <v>75.914000000000001</v>
+      </c>
+      <c r="K247">
+        <v>7.1109999999999998</v>
+      </c>
+      <c r="L247">
+        <v>53.279000000000003</v>
+      </c>
+      <c r="M247">
+        <v>2337.924</v>
+      </c>
+      <c r="N247">
+        <v>11.234</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>25</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248">
+        <v>2021</v>
+      </c>
+      <c r="D248" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G248">
+        <v>10.28</v>
+      </c>
+      <c r="H248">
+        <v>2013.222</v>
+      </c>
+      <c r="I248">
+        <v>2056.875</v>
+      </c>
+      <c r="J248">
+        <v>91.358000000000004</v>
+      </c>
+      <c r="K248">
+        <v>26.061</v>
+      </c>
+      <c r="L248">
+        <v>11.6</v>
+      </c>
+      <c r="M248">
+        <v>1203.7370000000001</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>25</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249">
+        <v>2021</v>
+      </c>
+      <c r="D249" t="s">
+        <v>10</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G249">
+        <v>10.28</v>
+      </c>
+      <c r="H249">
+        <v>1996.347</v>
+      </c>
+      <c r="I249">
+        <v>1937.5609999999999</v>
+      </c>
+      <c r="J249">
+        <v>88.126000000000005</v>
+      </c>
+      <c r="K249">
+        <v>25.378</v>
+      </c>
+      <c r="L249">
+        <v>12.679</v>
+      </c>
+      <c r="M249">
+        <v>1256.3789999999999</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>25</v>
+      </c>
+      <c r="B250" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250">
+        <v>2021</v>
+      </c>
+      <c r="D250" t="s">
+        <v>11</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G250">
+        <v>10.28</v>
+      </c>
+      <c r="H250">
+        <v>2153.7260000000001</v>
+      </c>
+      <c r="I250">
+        <v>2031.568</v>
+      </c>
+      <c r="J250">
+        <v>85.379000000000005</v>
+      </c>
+      <c r="K250">
+        <v>30.678999999999998</v>
+      </c>
+      <c r="L250">
+        <v>10.992000000000001</v>
+      </c>
+      <c r="M250">
+        <v>1400.297</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251">
+        <v>2021</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>18.13</v>
+      </c>
+      <c r="G251">
+        <v>10.18</v>
+      </c>
+      <c r="H251">
+        <v>2087.2660000000001</v>
+      </c>
+      <c r="I251">
+        <v>2252.7359999999999</v>
+      </c>
+      <c r="J251">
+        <v>484.62299999999999</v>
+      </c>
+      <c r="K251">
+        <v>8.0510000000000002</v>
+      </c>
+      <c r="L251">
+        <v>23.399000000000001</v>
+      </c>
+      <c r="M251">
+        <v>2317.828</v>
+      </c>
+      <c r="N251">
+        <v>9.2309999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>27</v>
+      </c>
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252">
+        <v>2021</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>18.13</v>
+      </c>
+      <c r="G252">
+        <v>10.18</v>
+      </c>
+      <c r="H252">
+        <v>2016.327</v>
+      </c>
+      <c r="I252">
+        <v>2193.7919999999999</v>
+      </c>
+      <c r="J252">
+        <v>496.79500000000002</v>
+      </c>
+      <c r="K252">
+        <v>7.6619999999999999</v>
+      </c>
+      <c r="L252">
+        <v>21.945</v>
+      </c>
+      <c r="M252">
+        <v>2296.1869999999999</v>
+      </c>
+      <c r="N252">
+        <v>10.023</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>27</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253">
+        <v>2021</v>
+      </c>
+      <c r="D253" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>18.13</v>
+      </c>
+      <c r="G253">
+        <v>10.18</v>
+      </c>
+      <c r="H253">
+        <v>2103.9140000000002</v>
+      </c>
+      <c r="I253">
+        <v>2197.357</v>
+      </c>
+      <c r="J253">
+        <v>490.24400000000003</v>
+      </c>
+      <c r="K253">
+        <v>8.6150000000000002</v>
+      </c>
+      <c r="L253">
+        <v>24.126000000000001</v>
+      </c>
+      <c r="M253">
+        <v>2344.683</v>
+      </c>
+      <c r="N253">
+        <v>9.9870000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>29</v>
+      </c>
+      <c r="B254" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254">
+        <v>2021</v>
+      </c>
+      <c r="D254" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>17.73</v>
+      </c>
+      <c r="G254">
+        <v>10.18</v>
+      </c>
+      <c r="H254">
+        <v>1973.9659999999999</v>
+      </c>
+      <c r="I254">
+        <v>1811.11</v>
+      </c>
+      <c r="J254">
+        <v>55.154000000000003</v>
+      </c>
+      <c r="K254">
+        <v>11.247999999999999</v>
+      </c>
+      <c r="L254">
+        <v>9.8460000000000001</v>
+      </c>
+      <c r="M254">
+        <v>2416.0030000000002</v>
+      </c>
+      <c r="N254">
+        <v>9.3290000000000006</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>29</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255">
+        <v>2021</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>17.73</v>
+      </c>
+      <c r="G255">
+        <v>10.18</v>
+      </c>
+      <c r="H255">
+        <v>1981.165</v>
+      </c>
+      <c r="I255">
+        <v>1823.6469999999999</v>
+      </c>
+      <c r="J255">
+        <v>56.923000000000002</v>
+      </c>
+      <c r="K255">
+        <v>12.036</v>
+      </c>
+      <c r="L255">
+        <v>10.234</v>
+      </c>
+      <c r="M255">
+        <v>2516.3780000000002</v>
+      </c>
+      <c r="N255">
+        <v>9.2569999999999997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>29</v>
+      </c>
+      <c r="B256" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256">
+        <v>2021</v>
+      </c>
+      <c r="D256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>17.73</v>
+      </c>
+      <c r="G256">
+        <v>10.18</v>
+      </c>
+      <c r="H256">
+        <v>1992.3720000000001</v>
+      </c>
+      <c r="I256">
+        <v>1802.3789999999999</v>
+      </c>
+      <c r="J256">
+        <v>54.031999999999996</v>
+      </c>
+      <c r="K256">
+        <v>10.888</v>
+      </c>
+      <c r="L256">
+        <v>9.9719999999999995</v>
+      </c>
+      <c r="M256">
+        <v>2483.4470000000001</v>
+      </c>
+      <c r="N256">
+        <v>9.6869999999999994</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>30</v>
+      </c>
+      <c r="B257" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257">
+        <v>2021</v>
+      </c>
+      <c r="D257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>16.22</v>
+      </c>
+      <c r="G257">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H257">
+        <v>2112.3130000000001</v>
+      </c>
+      <c r="I257">
+        <v>1854.2</v>
+      </c>
+      <c r="J257">
+        <v>411.20400000000001</v>
+      </c>
+      <c r="K257">
+        <v>26.658999999999999</v>
+      </c>
+      <c r="L257">
+        <v>22.571000000000002</v>
+      </c>
+      <c r="M257">
+        <v>1147.915</v>
+      </c>
+      <c r="N257">
+        <v>6.7850000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>30</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258">
+        <v>2021</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>16.22</v>
+      </c>
+      <c r="G258">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H258">
+        <v>2086.3240000000001</v>
+      </c>
+      <c r="I258">
+        <v>1934.7619999999999</v>
+      </c>
+      <c r="J258">
+        <v>423.56700000000001</v>
+      </c>
+      <c r="K258">
+        <v>23.992000000000001</v>
+      </c>
+      <c r="L258">
+        <v>25.678999999999998</v>
+      </c>
+      <c r="M258">
+        <v>1254.3869999999999</v>
+      </c>
+      <c r="N258">
+        <v>5.992</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>30</v>
+      </c>
+      <c r="B259" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259">
+        <v>2021</v>
+      </c>
+      <c r="D259" t="s">
+        <v>11</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>16.22</v>
+      </c>
+      <c r="G259">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H259">
+        <v>2153.3330000000001</v>
+      </c>
+      <c r="I259">
+        <v>1869.931</v>
+      </c>
+      <c r="J259">
+        <v>400.29700000000003</v>
+      </c>
+      <c r="K259">
+        <v>29.497</v>
+      </c>
+      <c r="L259">
+        <v>20.247</v>
+      </c>
+      <c r="M259">
+        <v>1934.24</v>
+      </c>
+      <c r="N259">
+        <v>6.1980000000000004</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>31</v>
+      </c>
+      <c r="B260" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260">
+        <v>2021</v>
+      </c>
+      <c r="D260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G260">
+        <v>10.08</v>
+      </c>
+      <c r="H260">
+        <v>2023.165</v>
+      </c>
+      <c r="I260">
+        <v>2099.2719999999999</v>
+      </c>
+      <c r="J260">
+        <v>424.04399999999998</v>
+      </c>
+      <c r="K260">
+        <v>15.972</v>
+      </c>
+      <c r="L260">
+        <v>22.765000000000001</v>
+      </c>
+      <c r="M260">
+        <v>737.57600000000002</v>
+      </c>
+      <c r="N260">
+        <v>6.1070000000000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>31</v>
+      </c>
+      <c r="B261" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261">
+        <v>2021</v>
+      </c>
+      <c r="D261" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G261">
+        <v>10.08</v>
+      </c>
+      <c r="H261">
+        <v>2110.357</v>
+      </c>
+      <c r="I261">
+        <v>2123.3789999999999</v>
+      </c>
+      <c r="J261">
+        <v>455.39699999999999</v>
+      </c>
+      <c r="K261">
+        <v>16.245000000000001</v>
+      </c>
+      <c r="L261">
+        <v>21.914000000000001</v>
+      </c>
+      <c r="M261">
+        <v>792.36500000000001</v>
+      </c>
+      <c r="N261">
+        <v>5.2670000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>31</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262">
+        <v>2021</v>
+      </c>
+      <c r="D262" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G262">
+        <v>10.08</v>
+      </c>
+      <c r="H262">
+        <v>2153.0230000000001</v>
+      </c>
+      <c r="I262">
+        <v>2109.8719999999998</v>
+      </c>
+      <c r="J262">
+        <v>409.113</v>
+      </c>
+      <c r="K262">
+        <v>15.222</v>
+      </c>
+      <c r="L262">
+        <v>20.678999999999998</v>
+      </c>
+      <c r="M262">
+        <v>799.27</v>
+      </c>
+      <c r="N262">
+        <v>7.3250000000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>32</v>
+      </c>
+      <c r="B263" t="s">
+        <v>15</v>
+      </c>
+      <c r="C263">
+        <v>2021</v>
+      </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>16.48</v>
+      </c>
+      <c r="G263">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="H263">
+        <v>2476.0909999999999</v>
+      </c>
+      <c r="I263">
+        <v>3128.12</v>
+      </c>
+      <c r="J263">
+        <v>9.1590000000000007</v>
+      </c>
+      <c r="K263">
+        <v>98.293999999999997</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>33.279000000000003</v>
+      </c>
+      <c r="N263">
+        <v>2.9809999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>32</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264">
+        <v>2021</v>
+      </c>
+      <c r="D264" t="s">
+        <v>10</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>16.48</v>
+      </c>
+      <c r="G264">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="H264">
+        <v>2315.6869999999999</v>
+      </c>
+      <c r="I264">
+        <v>3062.547</v>
+      </c>
+      <c r="J264">
+        <v>9.0250000000000004</v>
+      </c>
+      <c r="K264">
+        <v>93.647000000000006</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>32.118000000000002</v>
+      </c>
+      <c r="N264">
+        <v>3.0539999999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>32</v>
+      </c>
+      <c r="B265" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265">
+        <v>2021</v>
+      </c>
+      <c r="D265" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>16.48</v>
+      </c>
+      <c r="G265">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="H265">
+        <v>2501.3449999999998</v>
+      </c>
+      <c r="I265">
+        <v>2888.357</v>
+      </c>
+      <c r="J265">
+        <v>8.923</v>
+      </c>
+      <c r="K265">
+        <v>88.236999999999995</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>29.675000000000001</v>
+      </c>
+      <c r="N265">
+        <v>3.0019999999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>33</v>
+      </c>
+      <c r="B266" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266">
+        <v>2021</v>
+      </c>
+      <c r="D266" t="s">
+        <v>9</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>15.68</v>
+      </c>
+      <c r="G266">
+        <v>10.28</v>
+      </c>
+      <c r="H266">
+        <v>2062.2629999999999</v>
+      </c>
+      <c r="I266">
+        <v>2127.16</v>
+      </c>
+      <c r="J266">
+        <v>548.21699999999998</v>
+      </c>
+      <c r="K266">
+        <v>7.3109999999999999</v>
+      </c>
+      <c r="L266">
+        <v>44.484000000000002</v>
+      </c>
+      <c r="M266">
+        <v>2289.2829999999999</v>
+      </c>
+      <c r="N266">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>33</v>
+      </c>
+      <c r="B267" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267">
+        <v>2021</v>
+      </c>
+      <c r="D267" t="s">
+        <v>10</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>15.68</v>
+      </c>
+      <c r="G267">
+        <v>10.28</v>
+      </c>
+      <c r="H267">
+        <v>2156.9479999999999</v>
+      </c>
+      <c r="I267">
+        <v>2103.3249999999998</v>
+      </c>
+      <c r="J267">
+        <v>513.67899999999997</v>
+      </c>
+      <c r="K267">
+        <v>5.2370000000000001</v>
+      </c>
+      <c r="L267">
+        <v>45.320999999999998</v>
+      </c>
+      <c r="M267">
+        <v>2937.16</v>
+      </c>
+      <c r="N267">
+        <v>5.0209999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>33</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268">
+        <v>2021</v>
+      </c>
+      <c r="D268" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>15.68</v>
+      </c>
+      <c r="G268">
+        <v>10.28</v>
+      </c>
+      <c r="H268">
+        <v>2116.2440000000001</v>
+      </c>
+      <c r="I268">
+        <v>2133.0569999999998</v>
+      </c>
+      <c r="J268">
+        <v>559.45600000000002</v>
+      </c>
+      <c r="K268">
+        <v>8.3650000000000002</v>
+      </c>
+      <c r="L268">
+        <v>46.192</v>
+      </c>
+      <c r="M268">
+        <v>2199.3789999999999</v>
+      </c>
+      <c r="N268">
+        <v>4.6790000000000003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>34</v>
+      </c>
+      <c r="B269" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269">
+        <v>2021</v>
+      </c>
+      <c r="D269" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>17.03</v>
+      </c>
+      <c r="G269">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H269">
+        <v>2034.2739999999999</v>
+      </c>
+      <c r="I269">
+        <v>1711.7570000000001</v>
+      </c>
+      <c r="J269">
+        <v>658.85699999999997</v>
+      </c>
+      <c r="K269">
+        <v>50.515999999999998</v>
+      </c>
+      <c r="L269">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="M269">
+        <v>293.52499999999998</v>
+      </c>
+      <c r="N269">
+        <v>5.9649999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>34</v>
+      </c>
+      <c r="B270" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270">
+        <v>2021</v>
+      </c>
+      <c r="D270" t="s">
+        <v>10</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>17.03</v>
+      </c>
+      <c r="G270">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H270">
+        <v>1993.672</v>
+      </c>
+      <c r="I270">
+        <v>1733.2149999999999</v>
+      </c>
+      <c r="J270">
+        <v>627.92600000000004</v>
+      </c>
+      <c r="K270">
+        <v>51.366999999999997</v>
+      </c>
+      <c r="L270">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="M270">
+        <v>299.69400000000002</v>
+      </c>
+      <c r="N270">
+        <v>6.0235000000000003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>34</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271">
+        <v>2021</v>
+      </c>
+      <c r="D271" t="s">
+        <v>11</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>17.03</v>
+      </c>
+      <c r="G271">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H271">
+        <v>2016.6949999999999</v>
+      </c>
+      <c r="I271">
+        <v>1699.279</v>
+      </c>
+      <c r="J271">
+        <v>682.31399999999996</v>
+      </c>
+      <c r="K271">
+        <v>48.332999999999998</v>
+      </c>
+      <c r="L271">
+        <v>2.698</v>
+      </c>
+      <c r="M271">
+        <v>301.25700000000001</v>
+      </c>
+      <c r="N271">
+        <v>5.883</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>35</v>
+      </c>
+      <c r="B272" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272">
+        <v>2021</v>
+      </c>
+      <c r="D272" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>16.45</v>
+      </c>
+      <c r="G272">
+        <v>10.28</v>
+      </c>
+      <c r="H272">
+        <v>1887.356</v>
+      </c>
+      <c r="I272">
+        <v>1844.125</v>
+      </c>
+      <c r="J272">
+        <v>39.76</v>
+      </c>
+      <c r="K272">
+        <v>12.784000000000001</v>
+      </c>
+      <c r="L272">
+        <v>12.461</v>
+      </c>
+      <c r="M272">
+        <v>2094.5520000000001</v>
+      </c>
+      <c r="N272">
+        <v>292.89100000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>35</v>
+      </c>
+      <c r="B273" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273">
+        <v>2021</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>16.45</v>
+      </c>
+      <c r="G273">
+        <v>10.28</v>
+      </c>
+      <c r="H273">
+        <v>1853.1289999999999</v>
+      </c>
+      <c r="I273">
+        <v>1792.6790000000001</v>
+      </c>
+      <c r="J273">
+        <v>41.265000000000001</v>
+      </c>
+      <c r="K273">
+        <v>11.026</v>
+      </c>
+      <c r="L273">
+        <v>13.567</v>
+      </c>
+      <c r="M273">
+        <v>2153.279</v>
+      </c>
+      <c r="N273">
+        <v>264.89699999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>35</v>
+      </c>
+      <c r="B274" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274">
+        <v>2021</v>
+      </c>
+      <c r="D274" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>16.45</v>
+      </c>
+      <c r="G274">
+        <v>10.28</v>
+      </c>
+      <c r="H274">
+        <v>1893.654</v>
+      </c>
+      <c r="I274">
+        <v>1810.346</v>
+      </c>
+      <c r="J274">
+        <v>33.597000000000001</v>
+      </c>
+      <c r="K274">
+        <v>10.994999999999999</v>
+      </c>
+      <c r="L274">
+        <v>14.238</v>
+      </c>
+      <c r="M274">
+        <v>1983.2670000000001</v>
+      </c>
+      <c r="N274">
+        <v>253.679</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>36</v>
+      </c>
+      <c r="B275" t="s">
+        <v>15</v>
+      </c>
+      <c r="C275">
+        <v>2021</v>
+      </c>
+      <c r="D275" t="s">
+        <v>9</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G275">
+        <v>10.37</v>
+      </c>
+      <c r="H275">
+        <v>2085.924</v>
+      </c>
+      <c r="I275">
+        <v>2043.633</v>
+      </c>
+      <c r="J275">
+        <v>168.28399999999999</v>
+      </c>
+      <c r="K275">
+        <v>17.914000000000001</v>
+      </c>
+      <c r="L275">
+        <v>14.875999999999999</v>
+      </c>
+      <c r="M275">
+        <v>2309.4870000000001</v>
+      </c>
+      <c r="N275">
+        <v>14.291</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>36</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276">
+        <v>2021</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G276">
+        <v>10.37</v>
+      </c>
+      <c r="H276">
+        <v>2110.348</v>
+      </c>
+      <c r="I276">
+        <v>1967.5840000000001</v>
+      </c>
+      <c r="J276">
+        <v>165.23699999999999</v>
+      </c>
+      <c r="K276">
+        <v>15.239000000000001</v>
+      </c>
+      <c r="L276">
+        <v>15.679</v>
+      </c>
+      <c r="M276">
+        <v>2286.3789999999999</v>
+      </c>
+      <c r="N276">
+        <v>15.321</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>36</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277">
+        <v>2021</v>
+      </c>
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G277">
+        <v>10.37</v>
+      </c>
+      <c r="H277">
+        <v>2054.7719999999999</v>
+      </c>
+      <c r="I277">
+        <v>1978.354</v>
+      </c>
+      <c r="J277">
+        <v>159.89099999999999</v>
+      </c>
+      <c r="K277">
+        <v>14.981</v>
+      </c>
+      <c r="L277">
+        <v>17.126000000000001</v>
+      </c>
+      <c r="M277">
+        <v>2914.3719999999998</v>
+      </c>
+      <c r="N277">
+        <v>13.994</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>37</v>
+      </c>
+      <c r="B278" t="s">
+        <v>15</v>
+      </c>
+      <c r="C278">
+        <v>2021</v>
+      </c>
+      <c r="D278" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>17.22</v>
+      </c>
+      <c r="G278">
+        <v>10.43</v>
+      </c>
+      <c r="H278">
+        <v>2067.8980000000001</v>
+      </c>
+      <c r="I278">
+        <v>2224.52</v>
+      </c>
+      <c r="J278">
+        <v>559.721</v>
+      </c>
+      <c r="K278">
+        <v>7.3540000000000001</v>
+      </c>
+      <c r="L278">
+        <v>33.911000000000001</v>
+      </c>
+      <c r="M278">
+        <v>1155.777</v>
+      </c>
+      <c r="N278">
+        <v>195.90199999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>37</v>
+      </c>
+      <c r="B279" t="s">
+        <v>15</v>
+      </c>
+      <c r="C279">
+        <v>2021</v>
+      </c>
+      <c r="D279" t="s">
+        <v>10</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>17.22</v>
+      </c>
+      <c r="G279">
+        <v>10.43</v>
+      </c>
+      <c r="H279">
+        <v>2188.23</v>
+      </c>
+      <c r="I279">
+        <v>2198.672</v>
+      </c>
+      <c r="J279">
+        <v>506.79399999999998</v>
+      </c>
+      <c r="K279">
+        <v>6.2169999999999996</v>
+      </c>
+      <c r="L279">
+        <v>35.241</v>
+      </c>
+      <c r="M279">
+        <v>1197.2670000000001</v>
+      </c>
+      <c r="N279">
+        <v>188.37899999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>37</v>
+      </c>
+      <c r="B280" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280">
+        <v>2021</v>
+      </c>
+      <c r="D280" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>17.22</v>
+      </c>
+      <c r="G280">
+        <v>10.43</v>
+      </c>
+      <c r="H280">
+        <v>2094.6779999999999</v>
+      </c>
+      <c r="I280">
+        <v>2203.498</v>
+      </c>
+      <c r="J280">
+        <v>529.84100000000001</v>
+      </c>
+      <c r="K280">
+        <v>8.0670000000000002</v>
+      </c>
+      <c r="L280">
+        <v>39.555</v>
+      </c>
+      <c r="M280">
+        <v>1172.1669999999999</v>
+      </c>
+      <c r="N280">
+        <v>189.679</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>39</v>
+      </c>
+      <c r="B281" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281">
+        <v>2021</v>
+      </c>
+      <c r="D281" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="G281">
+        <v>10.18</v>
+      </c>
+      <c r="H281">
+        <v>2017.3340000000001</v>
+      </c>
+      <c r="I281">
+        <v>1901.56</v>
+      </c>
+      <c r="J281">
+        <v>485.52550000000002</v>
+      </c>
+      <c r="K281">
+        <v>9.7309999999999999</v>
+      </c>
+      <c r="L281">
+        <v>33.837000000000003</v>
+      </c>
+      <c r="M281">
+        <v>1418.759</v>
+      </c>
+      <c r="N281">
+        <v>174.82400000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>39</v>
+      </c>
+      <c r="B282" t="s">
+        <v>15</v>
+      </c>
+      <c r="C282">
+        <v>2021</v>
+      </c>
+      <c r="D282" t="s">
+        <v>10</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="G282">
+        <v>10.18</v>
+      </c>
+      <c r="H282">
+        <v>1992.6790000000001</v>
+      </c>
+      <c r="I282">
+        <v>1932.547</v>
+      </c>
+      <c r="J282">
+        <v>445.32100000000003</v>
+      </c>
+      <c r="K282">
+        <v>8.1259999999999994</v>
+      </c>
+      <c r="L282">
+        <v>29.872</v>
+      </c>
+      <c r="M282">
+        <v>1428.931</v>
+      </c>
+      <c r="N282">
+        <v>181.23400000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>39</v>
+      </c>
+      <c r="B283" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283">
+        <v>2021</v>
+      </c>
+      <c r="D283" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="G283">
+        <v>10.18</v>
+      </c>
+      <c r="H283">
+        <v>2039.664</v>
+      </c>
+      <c r="I283">
+        <v>1897.365</v>
+      </c>
+      <c r="J283">
+        <v>491.762</v>
+      </c>
+      <c r="K283">
+        <v>9.0670000000000002</v>
+      </c>
+      <c r="L283">
+        <v>32.156999999999996</v>
+      </c>
+      <c r="M283">
+        <v>1407.3589999999999</v>
+      </c>
+      <c r="N283">
+        <v>170.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
